--- a/flows/TUA_fund_flow_data.xlsx
+++ b/flows/TUA_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B326"/>
+  <dimension ref="A1:B338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3695,6 +3695,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>-81.23350000000001</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-5.55025</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>-3.30405</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>5.00265</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>-1.115</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>1.664625</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>13.7775</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>-4.90995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
